--- a/data/trans_orig/IP3109_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP3109_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4A12400-826A-4025-9579-8922C7C9C9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15FA0367-D2CA-40D2-8187-7B911D17AF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{8DF3FEB6-639B-442A-B9DA-C1225F7986AF}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{F47E3F5E-5CFD-498D-901B-15DE2265A9DF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,10 +65,361 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Todos los días</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>5 ó 6 veces semana</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>3 ó 4 veces semana</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>1 ó 2 veces semana</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>1 ó 2 veces semana</t>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
   </si>
   <si>
     <t>3,16%</t>
@@ -98,78 +449,21 @@
     <t>5,99%</t>
   </si>
   <si>
-    <t>3 ó 4 veces semana</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>5 ó 6 veces semana</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>0,59%</t>
   </si>
   <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
     <t>1,22%</t>
   </si>
   <si>
@@ -188,195 +482,237 @@
     <t>1,58%</t>
   </si>
   <si>
-    <t>Todos los días</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
     <t>3,91%</t>
   </si>
   <si>
@@ -404,355 +740,97 @@
     <t>4,96%</t>
   </si>
   <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
     <t>0,16%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
   </si>
   <si>
     <t>3,01%</t>
@@ -779,55 +857,19 @@
     <t>4,1%</t>
   </si>
   <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
   </si>
   <si>
     <t>0,65%</t>
@@ -839,52 +881,10 @@
     <t>0,79%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
     <t>0,36%</t>
   </si>
   <si>
     <t>1,27%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
   </si>
 </sst>
 </file>
@@ -1276,7 +1276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D302AF8F-A64F-4F64-A57A-A9B08E5B8F93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA1D0E5-F215-4383-91C1-99B9C097AD78}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1394,10 +1394,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>7677</v>
+        <v>7753</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1409,10 +1409,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I4" s="7">
-        <v>9774</v>
+        <v>10638</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1427,7 +1427,7 @@
         <v>27</v>
       </c>
       <c r="N4" s="7">
-        <v>17451</v>
+        <v>18392</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1445,10 +1445,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>28733</v>
+        <v>3065</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1460,10 +1460,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>16289</v>
+        <v>2185</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1475,10 +1475,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>45021</v>
+        <v>5250</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1496,10 +1496,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>58456</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1511,10 +1511,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>37337</v>
+        <v>1504</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1526,10 +1526,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>95793</v>
+        <v>1504</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1547,106 +1547,106 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>579</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="7">
-        <v>3</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2287</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>579</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="P7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" s="7">
-        <v>3</v>
-      </c>
-      <c r="N7" s="7">
-        <v>2287</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>148047</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>121675</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
-        <v>366</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>269723</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -1655,43 +1655,43 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>555</v>
+        <v>835</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>555</v>
+        <v>835</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1700,102 +1700,102 @@
         <v>3</v>
       </c>
       <c r="C10" s="7">
-        <v>324</v>
+        <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>242913</v>
+        <v>11397</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>269</v>
+        <v>25</v>
       </c>
       <c r="I10" s="7">
-        <v>187917</v>
+        <v>15163</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
-        <v>593</v>
+        <v>42</v>
       </c>
       <c r="N10" s="7">
-        <v>430830</v>
+        <v>26560</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="D11" s="7">
-        <v>3757</v>
+        <v>70440</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H11" s="7">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="I11" s="7">
-        <v>3008</v>
+        <v>63870</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="M11" s="7">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="N11" s="7">
-        <v>6766</v>
+        <v>134310</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1804,49 +1804,49 @@
         <v>20</v>
       </c>
       <c r="C12" s="7">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D12" s="7">
-        <v>14437</v>
+        <v>21985</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="H12" s="7">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I12" s="7">
-        <v>10607</v>
+        <v>23016</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="M12" s="7">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="N12" s="7">
-        <v>25044</v>
+        <v>45001</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1855,49 +1855,49 @@
         <v>30</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7">
-        <v>21985</v>
+        <v>14437</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H13" s="7">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I13" s="7">
-        <v>23016</v>
+        <v>10607</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="M13" s="7">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="N13" s="7">
-        <v>45001</v>
+        <v>25044</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1906,151 +1906,151 @@
         <v>40</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D14" s="7">
-        <v>1294</v>
+        <v>3757</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I14" s="7">
-        <v>1135</v>
+        <v>3008</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N14" s="7">
-        <v>2428</v>
+        <v>6766</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C15" s="7">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="D15" s="7">
-        <v>70440</v>
+        <v>0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="H15" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>63870</v>
+        <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="M15" s="7">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="N15" s="7">
-        <v>134310</v>
+        <v>0</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>1294</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>1135</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>2428</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2065,13 +2065,13 @@
         <v>111914</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="H17" s="7">
         <v>162</v>
@@ -2080,13 +2080,13 @@
         <v>101635</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="M17" s="7">
         <v>308</v>
@@ -2095,66 +2095,66 @@
         <v>213549</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="D18" s="7">
-        <v>6702</v>
+        <v>148047</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="H18" s="7">
-        <v>6</v>
+        <v>174</v>
       </c>
       <c r="I18" s="7">
-        <v>3884</v>
+        <v>121675</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="M18" s="7">
-        <v>15</v>
+        <v>366</v>
       </c>
       <c r="N18" s="7">
-        <v>10586</v>
+        <v>269723</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2163,49 +2163,49 @@
         <v>20</v>
       </c>
       <c r="C19" s="7">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="D19" s="7">
-        <v>18064</v>
+        <v>58456</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="H19" s="7">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="I19" s="7">
-        <v>16133</v>
+        <v>37337</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="M19" s="7">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="N19" s="7">
-        <v>34197</v>
+        <v>95793</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2214,49 +2214,49 @@
         <v>30</v>
       </c>
       <c r="C20" s="7">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D20" s="7">
-        <v>23792</v>
+        <v>28733</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H20" s="7">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I20" s="7">
-        <v>28733</v>
+        <v>16289</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="M20" s="7">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="N20" s="7">
-        <v>52526</v>
+        <v>45021</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2265,106 +2265,106 @@
         <v>40</v>
       </c>
       <c r="C21" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D21" s="7">
-        <v>559</v>
+        <v>7677</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="H21" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I21" s="7">
-        <v>0</v>
+        <v>9774</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="M21" s="7">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="N21" s="7">
-        <v>559</v>
+        <v>17451</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C22" s="7">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>122338</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="H22" s="7">
-        <v>165</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>119740</v>
+        <v>555</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="M22" s="7">
-        <v>325</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>242079</v>
+        <v>555</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>151</v>
+        <v>31</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -2373,43 +2373,43 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>2287</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>2287</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,102 +2418,102 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>232</v>
+        <v>324</v>
       </c>
       <c r="D24" s="7">
-        <v>171456</v>
+        <v>242913</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="H24" s="7">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="I24" s="7">
-        <v>168490</v>
+        <v>187917</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="M24" s="7">
-        <v>467</v>
+        <v>593</v>
       </c>
       <c r="N24" s="7">
-        <v>339947</v>
+        <v>430830</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="D25" s="7">
-        <v>579</v>
+        <v>109780</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H25" s="7">
+        <v>142</v>
+      </c>
+      <c r="I25" s="7">
+        <v>111015</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M25" s="7">
+        <v>284</v>
+      </c>
+      <c r="N25" s="7">
+        <v>220795</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="M25" s="7">
-        <v>1</v>
-      </c>
-      <c r="N25" s="7">
-        <v>579</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2522,49 +2522,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>37382</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H26" s="7">
+        <v>46</v>
+      </c>
+      <c r="I26" s="7">
+        <v>30972</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H26" s="7">
-        <v>3</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1504</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>91</v>
+      </c>
+      <c r="N26" s="7">
+        <v>68354</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="M26" s="7">
-        <v>3</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1504</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,49 +2573,49 @@
         <v>30</v>
       </c>
       <c r="C27" s="7">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D27" s="7">
-        <v>3065</v>
+        <v>17471</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="H27" s="7">
+        <v>25</v>
+      </c>
+      <c r="I27" s="7">
+        <v>17842</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H27" s="7">
-        <v>4</v>
-      </c>
-      <c r="I27" s="7">
-        <v>2185</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="M27" s="7">
+        <v>49</v>
+      </c>
+      <c r="N27" s="7">
+        <v>35312</v>
+      </c>
+      <c r="O27" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="M27" s="7">
-        <v>10</v>
-      </c>
-      <c r="N27" s="7">
-        <v>5250</v>
-      </c>
-      <c r="O27" s="7" t="s">
+      <c r="P27" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2624,151 +2624,151 @@
         <v>40</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>2633</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="H28" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I28" s="7">
-        <v>835</v>
+        <v>4516</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M28" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N28" s="7">
-        <v>835</v>
+        <v>7149</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C29" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D29" s="7">
-        <v>7753</v>
+        <v>1065</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>181</v>
+        <v>31</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H29" s="7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I29" s="7">
-        <v>10638</v>
+        <v>1437</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>184</v>
+        <v>31</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M29" s="7">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="N29" s="7">
-        <v>18392</v>
+        <v>2502</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C30" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D30" s="7">
-        <v>0</v>
+        <v>2788</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>42</v>
+        <v>191</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="H30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="7">
-        <v>0</v>
+        <v>786</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="M30" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N30" s="7">
-        <v>0</v>
+        <v>3574</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,102 +2777,102 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="D31" s="7">
-        <v>11397</v>
+        <v>171119</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="H31" s="7">
-        <v>25</v>
+        <v>223</v>
       </c>
       <c r="I31" s="7">
-        <v>15163</v>
+        <v>166568</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="M31" s="7">
-        <v>42</v>
+        <v>443</v>
       </c>
       <c r="N31" s="7">
-        <v>26560</v>
+        <v>337687</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="7">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="D32" s="7">
-        <v>2633</v>
+        <v>122338</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="H32" s="7">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="I32" s="7">
-        <v>4516</v>
+        <v>119740</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="M32" s="7">
-        <v>11</v>
+        <v>325</v>
       </c>
       <c r="N32" s="7">
-        <v>7149</v>
+        <v>242079</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,49 +2881,49 @@
         <v>20</v>
       </c>
       <c r="C33" s="7">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D33" s="7">
-        <v>17471</v>
+        <v>23792</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H33" s="7">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="I33" s="7">
-        <v>17842</v>
+        <v>28733</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="M33" s="7">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="N33" s="7">
-        <v>35312</v>
+        <v>52526</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,49 +2932,49 @@
         <v>30</v>
       </c>
       <c r="C34" s="7">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D34" s="7">
-        <v>37382</v>
+        <v>18064</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H34" s="7">
         <v>23</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H34" s="7">
-        <v>46</v>
-      </c>
       <c r="I34" s="7">
-        <v>30972</v>
+        <v>16133</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="M34" s="7">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="N34" s="7">
-        <v>68354</v>
+        <v>34197</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,148 +2983,148 @@
         <v>40</v>
       </c>
       <c r="C35" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D35" s="7">
-        <v>2788</v>
+        <v>6702</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="H35" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I35" s="7">
-        <v>786</v>
+        <v>3884</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>41</v>
+        <v>229</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="M35" s="7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N35" s="7">
-        <v>3574</v>
+        <v>10586</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C36" s="7">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="D36" s="7">
-        <v>109780</v>
+        <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>224</v>
+        <v>31</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>225</v>
+        <v>32</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H36" s="7">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="I36" s="7">
-        <v>111015</v>
+        <v>0</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>227</v>
+        <v>31</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>228</v>
+        <v>32</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="M36" s="7">
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="N36" s="7">
-        <v>220795</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>230</v>
+        <v>31</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>231</v>
+        <v>32</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C37" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" s="7">
-        <v>1065</v>
+        <v>559</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>111</v>
+        <v>236</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>233</v>
+        <v>129</v>
       </c>
       <c r="H37" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" s="7">
-        <v>1437</v>
+        <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>235</v>
-      </c>
       <c r="M37" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N37" s="7">
-        <v>2502</v>
+        <v>559</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>237</v>
+        <v>31</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>238</v>
@@ -3136,49 +3136,49 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D38" s="7">
-        <v>171119</v>
+        <v>171456</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="H38" s="7">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="I38" s="7">
-        <v>166568</v>
+        <v>168490</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="M38" s="7">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="N38" s="7">
-        <v>337687</v>
+        <v>339947</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,10 +3189,10 @@
         <v>10</v>
       </c>
       <c r="C39" s="7">
-        <v>33</v>
+        <v>587</v>
       </c>
       <c r="D39" s="7">
-        <v>21348</v>
+        <v>458360</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>239</v>
@@ -3204,10 +3204,10 @@
         <v>241</v>
       </c>
       <c r="H39" s="7">
-        <v>33</v>
+        <v>598</v>
       </c>
       <c r="I39" s="7">
-        <v>21182</v>
+        <v>426939</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>242</v>
@@ -3219,19 +3219,19 @@
         <v>244</v>
       </c>
       <c r="M39" s="7">
-        <v>66</v>
+        <v>1185</v>
       </c>
       <c r="N39" s="7">
-        <v>42530</v>
+        <v>885299</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>178</v>
+        <v>245</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,49 +3240,49 @@
         <v>20</v>
       </c>
       <c r="C40" s="7">
-        <v>115</v>
+        <v>196</v>
       </c>
       <c r="D40" s="7">
-        <v>78705</v>
+        <v>144681</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H40" s="7">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="I40" s="7">
-        <v>62373</v>
+        <v>122243</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M40" s="7">
-        <v>208</v>
+        <v>377</v>
       </c>
       <c r="N40" s="7">
-        <v>141078</v>
+        <v>266924</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>206</v>
+        <v>254</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,49 +3291,49 @@
         <v>30</v>
       </c>
       <c r="C41" s="7">
-        <v>196</v>
+        <v>115</v>
       </c>
       <c r="D41" s="7">
-        <v>144681</v>
+        <v>78705</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H41" s="7">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="I41" s="7">
-        <v>122243</v>
+        <v>62373</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M41" s="7">
-        <v>377</v>
+        <v>208</v>
       </c>
       <c r="N41" s="7">
-        <v>266924</v>
+        <v>141078</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>261</v>
+        <v>172</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,145 +3342,145 @@
         <v>40</v>
       </c>
       <c r="C42" s="7">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D42" s="7">
-        <v>4641</v>
+        <v>21348</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>109</v>
+        <v>267</v>
       </c>
       <c r="H42" s="7">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="I42" s="7">
-        <v>5043</v>
+        <v>21182</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>61</v>
+        <v>269</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="M42" s="7">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="N42" s="7">
-        <v>9684</v>
+        <v>42530</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>267</v>
+        <v>51</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C43" s="7">
-        <v>587</v>
+        <v>2</v>
       </c>
       <c r="D43" s="7">
-        <v>458360</v>
+        <v>1065</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>271</v>
+        <v>31</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H43" s="7">
-        <v>598</v>
+        <v>3</v>
       </c>
       <c r="I43" s="7">
-        <v>426939</v>
+        <v>1992</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>274</v>
+        <v>31</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>275</v>
+        <v>185</v>
       </c>
       <c r="M43" s="7">
-        <v>1185</v>
+        <v>5</v>
       </c>
       <c r="N43" s="7">
-        <v>885299</v>
+        <v>3058</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C44" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D44" s="7">
-        <v>1065</v>
+        <v>4641</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="G44" s="7" t="s">
-        <v>267</v>
+        <v>91</v>
       </c>
       <c r="H44" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I44" s="7">
-        <v>1992</v>
+        <v>5043</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>280</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M44" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N44" s="7">
-        <v>3058</v>
+        <v>9684</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>45</v>
+        <v>274</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>281</v>
@@ -3501,13 +3501,13 @@
         <v>708800</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="H45" s="7">
         <v>914</v>
@@ -3516,13 +3516,13 @@
         <v>639773</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="M45" s="7">
         <v>1853</v>
@@ -3531,13 +3531,13 @@
         <v>1348573</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP3109_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP3109_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15FA0367-D2CA-40D2-8187-7B911D17AF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3C15BFD-0CF8-4CC7-B7FB-75DFF09DF3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{F47E3F5E-5CFD-498D-901B-15DE2265A9DF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5E0C77A9-ACF3-4267-9F86-7A32C8830918}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="283">
-  <si>
-    <t>Menores según la frecuencia de tomar  leche o lácteos en 2023 (Tasa respuesta: 96,51%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="282">
+  <si>
+    <t>Menores según la frecuencia de tomar leche o lácteos en 2023 (Tasa respuesta: 96,51%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -68,6 +68,105 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1 ó 2 veces semana</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>3 ó 4 veces semana</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>5 ó 6 veces semana</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
     <t>Todos los días</t>
   </si>
   <si>
@@ -98,679 +197,679 @@
     <t>81,76%</t>
   </si>
   <si>
-    <t>5 ó 6 veces semana</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>3 ó 4 veces semana</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>1 ó 2 veces semana</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
     <t>62,94%</t>
   </si>
   <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
   </si>
   <si>
     <t>62,84%</t>
   </si>
   <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
   </si>
   <si>
     <t>62,89%</t>
   </si>
   <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
   </si>
   <si>
     <t>18,6%</t>
   </si>
   <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
   </si>
   <si>
     <t>0,23%</t>
   </si>
   <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
   </si>
   <si>
     <t>64,67%</t>
   </si>
   <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
   </si>
   <si>
     <t>66,73%</t>
   </si>
   <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
   </si>
   <si>
     <t>65,65%</t>
@@ -779,112 +878,10 @@
     <t>63,22%</t>
   </si>
   <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -895,7 +892,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -991,39 +988,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1075,7 +1072,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1186,13 +1183,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1201,6 +1191,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1265,19 +1262,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA1D0E5-F215-4383-91C1-99B9C097AD78}">
-  <dimension ref="A1:Q45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3F81D4-1135-45A7-AA02-C4C523C6D91E}">
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1394,10 +1411,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>7753</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1409,286 +1426,286 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>10638</v>
+        <v>835</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>835</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>27</v>
-      </c>
-      <c r="N4" s="7">
-        <v>18392</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="7">
-        <v>6</v>
-      </c>
-      <c r="D5" s="7">
-        <v>3065</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>4</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2185</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>10</v>
-      </c>
-      <c r="N5" s="7">
-        <v>5250</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>579</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>0</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="7">
-        <v>3</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1504</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>1504</v>
+        <v>579</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>579</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>1504</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>579</v>
+        <v>1504</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>3065</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>2185</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>5250</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="7">
+        <v>10</v>
+      </c>
+      <c r="D9" s="7">
+        <v>7753</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="7">
+        <v>17</v>
+      </c>
+      <c r="I9" s="7">
+        <v>10638</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7">
-        <v>835</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>27</v>
+      </c>
+      <c r="N9" s="7">
+        <v>18392</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M9" s="7">
-        <v>1</v>
-      </c>
-      <c r="N9" s="7">
-        <v>835</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>52</v>
@@ -1753,304 +1770,304 @@
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>70440</v>
+        <v>1294</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1135</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="7">
-        <v>100</v>
-      </c>
-      <c r="I11" s="7">
-        <v>63870</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="7">
+        <v>3</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2428</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="M11" s="7">
-        <v>183</v>
-      </c>
-      <c r="N11" s="7">
-        <v>134310</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>21985</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H12" s="7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>23016</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="M12" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>45001</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C13" s="7">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>14437</v>
+        <v>3757</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>10607</v>
+        <v>3008</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="N13" s="7">
-        <v>25044</v>
+        <v>6766</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D14" s="7">
-        <v>3757</v>
+        <v>14437</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I14" s="7">
-        <v>3008</v>
+        <v>10607</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="N14" s="7">
-        <v>6766</v>
+        <v>25044</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D15" s="7">
-        <v>0</v>
+        <v>21985</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I15" s="7">
-        <v>0</v>
+        <v>23016</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="M15" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="N15" s="7">
-        <v>0</v>
+        <v>45001</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="D16" s="7">
-        <v>1294</v>
+        <v>70440</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="7">
+        <v>100</v>
+      </c>
+      <c r="I16" s="7">
+        <v>63870</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>183</v>
+      </c>
+      <c r="N16" s="7">
+        <v>134310</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1135</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M16" s="7">
-        <v>3</v>
-      </c>
-      <c r="N16" s="7">
-        <v>2428</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2106,310 +2123,310 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>148047</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" s="7">
+        <v>3</v>
+      </c>
+      <c r="I18" s="7">
+        <v>2287</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>3</v>
+      </c>
+      <c r="N18" s="7">
+        <v>2287</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H18" s="7">
-        <v>174</v>
-      </c>
-      <c r="I18" s="7">
-        <v>121675</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M18" s="7">
-        <v>366</v>
-      </c>
-      <c r="N18" s="7">
-        <v>269723</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" s="7">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>58456</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="H19" s="7">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>37337</v>
+        <v>555</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
-        <v>134</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>95793</v>
+        <v>555</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C20" s="7">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D20" s="7">
-        <v>28733</v>
+        <v>7677</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I20" s="7">
-        <v>16289</v>
+        <v>9774</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="N20" s="7">
-        <v>45021</v>
+        <v>17451</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C21" s="7">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D21" s="7">
-        <v>7677</v>
+        <v>28733</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H21" s="7">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I21" s="7">
-        <v>9774</v>
+        <v>16289</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="M21" s="7">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="N21" s="7">
-        <v>17451</v>
+        <v>45021</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>58456</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="I22" s="7">
-        <v>555</v>
+        <v>37337</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="N22" s="7">
-        <v>555</v>
+        <v>95793</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>148047</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>137</v>
       </c>
       <c r="H23" s="7">
-        <v>3</v>
+        <v>174</v>
       </c>
       <c r="I23" s="7">
-        <v>2287</v>
+        <v>121675</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M23" s="7">
+        <v>366</v>
+      </c>
+      <c r="N23" s="7">
+        <v>269723</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="M23" s="7">
-        <v>3</v>
-      </c>
-      <c r="N23" s="7">
-        <v>2287</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,310 +2482,310 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>142</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>109780</v>
+        <v>2788</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7">
+        <v>786</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M25" s="7">
+        <v>4</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3574</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="P25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H25" s="7">
-        <v>142</v>
-      </c>
-      <c r="I25" s="7">
-        <v>111015</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="M25" s="7">
-        <v>284</v>
-      </c>
-      <c r="N25" s="7">
-        <v>220795</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C26" s="7">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>37382</v>
+        <v>1065</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>158</v>
+        <v>63</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="H26" s="7">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>30972</v>
+        <v>1437</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="M26" s="7">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="N26" s="7">
-        <v>68354</v>
+        <v>2502</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C27" s="7">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D27" s="7">
-        <v>17471</v>
+        <v>2633</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="H27" s="7">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="I27" s="7">
-        <v>17842</v>
+        <v>4516</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="M27" s="7">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="N27" s="7">
-        <v>35312</v>
+        <v>7149</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C28" s="7">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D28" s="7">
-        <v>2633</v>
+        <v>17471</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="H28" s="7">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="I28" s="7">
-        <v>4516</v>
+        <v>17842</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="M28" s="7">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="N28" s="7">
-        <v>7149</v>
+        <v>35312</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="7">
+        <v>45</v>
+      </c>
+      <c r="D29" s="7">
+        <v>37382</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H29" s="7">
         <v>46</v>
       </c>
-      <c r="C29" s="7">
-        <v>2</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1065</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H29" s="7">
-        <v>2</v>
-      </c>
       <c r="I29" s="7">
-        <v>1437</v>
+        <v>30972</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>186</v>
+        <v>23</v>
       </c>
       <c r="M29" s="7">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="N29" s="7">
-        <v>2502</v>
+        <v>68354</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C30" s="7">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="D30" s="7">
-        <v>2788</v>
+        <v>109780</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H30" s="7">
+        <v>142</v>
+      </c>
+      <c r="I30" s="7">
+        <v>111015</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="M30" s="7">
+        <v>284</v>
+      </c>
+      <c r="N30" s="7">
+        <v>220795</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="H30" s="7">
-        <v>1</v>
-      </c>
-      <c r="I30" s="7">
-        <v>786</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="M30" s="7">
-        <v>4</v>
-      </c>
-      <c r="N30" s="7">
-        <v>3574</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2824,310 +2841,310 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="7">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>122338</v>
+        <v>559</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>199</v>
+        <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="H32" s="7">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>119740</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="M32" s="7">
-        <v>325</v>
+        <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>242079</v>
+        <v>559</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C33" s="7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D33" s="7">
-        <v>23792</v>
+        <v>0</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>207</v>
+        <v>11</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="H33" s="7">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="I33" s="7">
-        <v>28733</v>
+        <v>0</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>210</v>
+        <v>11</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>211</v>
+        <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="M33" s="7">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="N33" s="7">
-        <v>52526</v>
+        <v>0</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>213</v>
+        <v>11</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C34" s="7">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D34" s="7">
-        <v>18064</v>
+        <v>6702</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c r="H34" s="7">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="I34" s="7">
-        <v>16133</v>
+        <v>3884</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="M34" s="7">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="N34" s="7">
-        <v>34197</v>
+        <v>10586</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C35" s="7">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D35" s="7">
-        <v>6702</v>
+        <v>18064</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="H35" s="7">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="I35" s="7">
-        <v>3884</v>
+        <v>16133</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="M35" s="7">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="N35" s="7">
-        <v>10586</v>
+        <v>34197</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C36" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D36" s="7">
-        <v>0</v>
+        <v>23792</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>31</v>
+        <v>215</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>32</v>
+        <v>216</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="H36" s="7">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I36" s="7">
-        <v>0</v>
+        <v>28733</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>31</v>
+        <v>218</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>32</v>
+        <v>219</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="M36" s="7">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="N36" s="7">
-        <v>0</v>
+        <v>52526</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>31</v>
+        <v>221</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>32</v>
+        <v>222</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C37" s="7">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="D37" s="7">
-        <v>559</v>
+        <v>122338</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>31</v>
+        <v>225</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>129</v>
+        <v>226</v>
       </c>
       <c r="H37" s="7">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="I37" s="7">
-        <v>0</v>
+        <v>119740</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M37" s="7">
-        <v>1</v>
+        <v>325</v>
       </c>
       <c r="N37" s="7">
-        <v>559</v>
+        <v>242079</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>237</v>
+        <v>140</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>31</v>
+        <v>230</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,304 +3206,304 @@
         <v>10</v>
       </c>
       <c r="C39" s="7">
-        <v>587</v>
+        <v>6</v>
       </c>
       <c r="D39" s="7">
-        <v>458360</v>
+        <v>4641</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H39" s="7">
+        <v>6</v>
+      </c>
+      <c r="I39" s="7">
+        <v>5043</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="M39" s="7">
+        <v>12</v>
+      </c>
+      <c r="N39" s="7">
+        <v>9684</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="H39" s="7">
-        <v>598</v>
-      </c>
-      <c r="I39" s="7">
-        <v>426939</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="M39" s="7">
-        <v>1185</v>
-      </c>
-      <c r="N39" s="7">
-        <v>885299</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C40" s="7">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="D40" s="7">
-        <v>144681</v>
+        <v>1065</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="H40" s="7">
-        <v>181</v>
+        <v>3</v>
       </c>
       <c r="I40" s="7">
-        <v>122243</v>
+        <v>1992</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="M40" s="7">
-        <v>377</v>
+        <v>5</v>
       </c>
       <c r="N40" s="7">
-        <v>266924</v>
+        <v>3058</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C41" s="7">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="D41" s="7">
-        <v>78705</v>
+        <v>21348</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="H41" s="7">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="I41" s="7">
-        <v>62373</v>
+        <v>21182</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="M41" s="7">
-        <v>208</v>
+        <v>66</v>
       </c>
       <c r="N41" s="7">
-        <v>141078</v>
+        <v>42530</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C42" s="7">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="D42" s="7">
-        <v>21348</v>
+        <v>78705</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="H42" s="7">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="I42" s="7">
-        <v>21182</v>
+        <v>62373</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>270</v>
+        <v>119</v>
       </c>
       <c r="M42" s="7">
-        <v>66</v>
+        <v>208</v>
       </c>
       <c r="N42" s="7">
-        <v>42530</v>
+        <v>141078</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>51</v>
+        <v>171</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C43" s="7">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="D43" s="7">
-        <v>1065</v>
+        <v>144681</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>31</v>
+        <v>264</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="H43" s="7">
-        <v>3</v>
+        <v>181</v>
       </c>
       <c r="I43" s="7">
-        <v>1992</v>
+        <v>122243</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>31</v>
+        <v>267</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>185</v>
+        <v>268</v>
       </c>
       <c r="M43" s="7">
-        <v>5</v>
+        <v>377</v>
       </c>
       <c r="N43" s="7">
-        <v>3058</v>
+        <v>266924</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>143</v>
+        <v>269</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C44" s="7">
-        <v>6</v>
+        <v>587</v>
       </c>
       <c r="D44" s="7">
-        <v>4641</v>
+        <v>458360</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H44" s="7">
+        <v>598</v>
+      </c>
+      <c r="I44" s="7">
+        <v>426939</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="M44" s="7">
+        <v>1185</v>
+      </c>
+      <c r="N44" s="7">
+        <v>885299</v>
+      </c>
+      <c r="O44" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="P44" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="G44" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H44" s="7">
-        <v>6</v>
-      </c>
-      <c r="I44" s="7">
-        <v>5043</v>
-      </c>
-      <c r="J44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="M44" s="7">
-        <v>12</v>
-      </c>
-      <c r="N44" s="7">
-        <v>9684</v>
-      </c>
-      <c r="O44" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,6 +3555,11 @@
       </c>
       <c r="Q45" s="7" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP3109_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP3109_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3C15BFD-0CF8-4CC7-B7FB-75DFF09DF3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B2BA42F-825F-4250-A6E0-2C01DFF61A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5E0C77A9-ACF3-4267-9F86-7A32C8830918}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{06D10D80-A619-420D-9742-F5FFAE8B2C7A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="287">
   <si>
     <t>Menores según la frecuencia de tomar leche o lácteos en 2023 (Tasa respuesta: 96,51%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -83,13 +83,13 @@
     <t>5,51%</t>
   </si>
   <si>
-    <t>26,18%</t>
+    <t>28,01%</t>
   </si>
   <si>
     <t>3,15%</t>
   </si>
   <si>
-    <t>16,97%</t>
+    <t>17,7%</t>
   </si>
   <si>
     <t>menos de 1 vez semana</t>
@@ -107,13 +107,13 @@
     <t>5,08%</t>
   </si>
   <si>
-    <t>24,12%</t>
+    <t>24,27%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>9,15%</t>
+    <t>9,53%</t>
   </si>
   <si>
     <t>3 ó 4 veces semana</t>
@@ -122,19 +122,19 @@
     <t>9,92%</t>
   </si>
   <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
   </si>
   <si>
     <t>5,66%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
   </si>
   <si>
     <t>5 ó 6 veces semana</t>
@@ -143,28 +143,28 @@
     <t>26,89%</t>
   </si>
   <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
   </si>
   <si>
     <t>14,41%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
   </si>
   <si>
     <t>19,77%</t>
   </si>
   <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
   </si>
   <si>
     <t>Todos los días</t>
@@ -173,52 +173,55 @@
     <t>68,03%</t>
   </si>
   <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
   </si>
   <si>
     <t>70,16%</t>
   </si>
   <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
   </si>
   <si>
     <t>69,25%</t>
   </si>
   <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>3,96%</t>
+    <t>3,98%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
+    <t>6,08%</t>
+  </si>
+  <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
   </si>
   <si>
     <t>1,3%</t>
@@ -233,616 +236,628 @@
     <t>3,36%</t>
   </si>
   <si>
-    <t>8,61%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
   </si>
   <si>
     <t>2,96%</t>
   </si>
   <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
     <t>1,33%</t>
   </si>
   <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
   </si>
   <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
+    <t>1,52%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>1,78%</t>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
+    <t>0,02%</t>
   </si>
   <si>
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
     <t>0,23%</t>
   </si>
   <si>
     <t>0,07%</t>
   </si>
   <si>
-    <t>0,58%</t>
+    <t>0,52%</t>
   </si>
   <si>
     <t>3,01%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
     <t>3,31%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
   </si>
   <si>
     <t>11,1%</t>
   </si>
   <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
   </si>
   <si>
     <t>9,75%</t>
   </si>
   <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
   </si>
   <si>
     <t>20,41%</t>
   </si>
   <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
   </si>
   <si>
     <t>19,11%</t>
   </si>
   <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
   </si>
   <si>
     <t>19,79%</t>
@@ -851,34 +866,34 @@
     <t>17,79%</t>
   </si>
   <si>
-    <t>21,94%</t>
+    <t>21,83%</t>
   </si>
   <si>
     <t>64,67%</t>
   </si>
   <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
   </si>
   <si>
     <t>66,73%</t>
   </si>
   <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
   </si>
   <si>
     <t>65,65%</t>
   </si>
   <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1293,7 +1308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3F81D4-1135-45A7-AA02-C4C523C6D91E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EFC1B1-CC95-420D-9E7F-0437D3DB9F0A}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1797,7 +1812,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -1806,13 +1821,13 @@
         <v>2428</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1833,7 +1848,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1848,7 +1863,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1863,7 +1878,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1878,13 +1893,13 @@
         <v>3757</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -1893,13 +1908,13 @@
         <v>3008</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -1908,13 +1923,13 @@
         <v>6766</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1929,13 +1944,13 @@
         <v>14437</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -1944,13 +1959,13 @@
         <v>10607</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -1959,13 +1974,13 @@
         <v>25044</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1980,13 +1995,13 @@
         <v>21985</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H15" s="7">
         <v>37</v>
@@ -1995,13 +2010,13 @@
         <v>23016</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M15" s="7">
         <v>67</v>
@@ -2010,13 +2025,13 @@
         <v>45001</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2031,13 +2046,13 @@
         <v>70440</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H16" s="7">
         <v>100</v>
@@ -2046,13 +2061,13 @@
         <v>63870</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>183</v>
@@ -2061,13 +2076,13 @@
         <v>134310</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2123,7 +2138,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2141,7 +2156,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -2150,13 +2165,13 @@
         <v>2287</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -2165,13 +2180,13 @@
         <v>2287</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2192,7 +2207,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2201,13 +2216,13 @@
         <v>555</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2216,13 +2231,13 @@
         <v>555</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,13 +2252,13 @@
         <v>7677</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
@@ -2252,13 +2267,13 @@
         <v>9774</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>27</v>
@@ -2267,13 +2282,13 @@
         <v>17451</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2288,13 +2303,13 @@
         <v>28733</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H21" s="7">
         <v>24</v>
@@ -2303,13 +2318,13 @@
         <v>16289</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M21" s="7">
         <v>62</v>
@@ -2318,13 +2333,13 @@
         <v>45021</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2339,13 +2354,13 @@
         <v>58456</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H22" s="7">
         <v>53</v>
@@ -2354,13 +2369,13 @@
         <v>37337</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="M22" s="7">
         <v>134</v>
@@ -2369,13 +2384,13 @@
         <v>95793</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,13 +2405,13 @@
         <v>148047</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H23" s="7">
         <v>174</v>
@@ -2405,13 +2420,13 @@
         <v>121675</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M23" s="7">
         <v>366</v>
@@ -2420,13 +2435,13 @@
         <v>269723</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,7 +2497,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2494,13 +2509,13 @@
         <v>2788</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2509,13 +2524,13 @@
         <v>786</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -2524,13 +2539,13 @@
         <v>3574</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2545,13 +2560,13 @@
         <v>1065</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2560,13 +2575,13 @@
         <v>1437</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -2575,13 +2590,13 @@
         <v>2502</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>155</v>
+        <v>104</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2596,13 +2611,13 @@
         <v>2633</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -2611,13 +2626,13 @@
         <v>4516</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M27" s="7">
         <v>11</v>
@@ -2626,13 +2641,13 @@
         <v>7149</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,13 +2662,13 @@
         <v>17471</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H28" s="7">
         <v>25</v>
@@ -2662,13 +2677,13 @@
         <v>17842</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="M28" s="7">
         <v>49</v>
@@ -2677,13 +2692,13 @@
         <v>35312</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,13 +2713,13 @@
         <v>37382</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="H29" s="7">
         <v>46</v>
@@ -2713,13 +2728,13 @@
         <v>30972</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>23</v>
+        <v>184</v>
       </c>
       <c r="M29" s="7">
         <v>91</v>
@@ -2728,13 +2743,13 @@
         <v>68354</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2749,13 +2764,13 @@
         <v>109780</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="H30" s="7">
         <v>142</v>
@@ -2764,13 +2779,13 @@
         <v>111015</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M30" s="7">
         <v>284</v>
@@ -2779,13 +2794,13 @@
         <v>220795</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,7 +2856,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2853,13 +2868,13 @@
         <v>559</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2874,7 +2889,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -2883,13 +2898,13 @@
         <v>559</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,7 +2925,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -2925,7 +2940,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -2940,7 +2955,7 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,13 +2970,13 @@
         <v>6702</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>200</v>
+        <v>72</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
@@ -2970,13 +2985,13 @@
         <v>3884</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="M34" s="7">
         <v>15</v>
@@ -2985,13 +3000,13 @@
         <v>10586</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,13 +3021,13 @@
         <v>18064</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="H35" s="7">
         <v>23</v>
@@ -3021,13 +3036,13 @@
         <v>16133</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="M35" s="7">
         <v>51</v>
@@ -3036,13 +3051,13 @@
         <v>34197</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,13 +3072,13 @@
         <v>23792</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="H36" s="7">
         <v>41</v>
@@ -3072,13 +3087,13 @@
         <v>28733</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="M36" s="7">
         <v>75</v>
@@ -3087,13 +3102,13 @@
         <v>52526</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,13 +3123,13 @@
         <v>122338</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="H37" s="7">
         <v>165</v>
@@ -3123,13 +3138,13 @@
         <v>119740</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="M37" s="7">
         <v>325</v>
@@ -3138,13 +3153,13 @@
         <v>242079</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>140</v>
+        <v>237</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,13 +3227,13 @@
         <v>4641</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="H39" s="7">
         <v>6</v>
@@ -3227,13 +3242,13 @@
         <v>5043</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>192</v>
+        <v>244</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="M39" s="7">
         <v>12</v>
@@ -3242,13 +3257,13 @@
         <v>9684</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,13 +3278,13 @@
         <v>1065</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>11</v>
+        <v>250</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>241</v>
+        <v>102</v>
       </c>
       <c r="H40" s="7">
         <v>3</v>
@@ -3278,13 +3293,13 @@
         <v>1992</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>244</v>
+        <v>159</v>
       </c>
       <c r="M40" s="7">
         <v>5</v>
@@ -3293,13 +3308,13 @@
         <v>3058</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,13 +3329,13 @@
         <v>21348</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>249</v>
+        <v>169</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>250</v>
+        <v>152</v>
       </c>
       <c r="H41" s="7">
         <v>33</v>
@@ -3329,13 +3344,13 @@
         <v>21182</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M41" s="7">
         <v>66</v>
@@ -3347,10 +3362,10 @@
         <v>16</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>255</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,13 +3380,13 @@
         <v>78705</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H42" s="7">
         <v>93</v>
@@ -3380,13 +3395,13 @@
         <v>62373</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>119</v>
+        <v>265</v>
       </c>
       <c r="M42" s="7">
         <v>208</v>
@@ -3395,13 +3410,13 @@
         <v>141078</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,13 +3431,13 @@
         <v>144681</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="H43" s="7">
         <v>181</v>
@@ -3431,13 +3446,13 @@
         <v>122243</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="M43" s="7">
         <v>377</v>
@@ -3446,13 +3461,13 @@
         <v>266924</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,13 +3482,13 @@
         <v>458360</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="H44" s="7">
         <v>598</v>
@@ -3482,13 +3497,13 @@
         <v>426939</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="M44" s="7">
         <v>1185</v>
@@ -3497,13 +3512,13 @@
         <v>885299</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,7 +3574,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP3109_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP3109_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B2BA42F-825F-4250-A6E0-2C01DFF61A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E884E1F7-6B0A-46E3-AFE2-A5A45E1E7692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{06D10D80-A619-420D-9742-F5FFAE8B2C7A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BF57A49C-74AA-4C06-A936-7D66CCD6F54B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="250">
   <si>
     <t>Menores según la frecuencia de tomar leche o lácteos en 2023 (Tasa respuesta: 96,51%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,835 +65,724 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
+    <t>1,75%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>menos de 1 vez semana</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
   </si>
   <si>
     <t>1 ó 2 veces semana</t>
   </si>
   <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
   </si>
   <si>
     <t>3 ó 4 veces semana</t>
   </si>
   <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>5 ó 6 veces semana</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>Todos los días</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
     <t>9,92%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>5 ó 6 veces semana</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>Todos los días</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
   </si>
   <si>
     <t>10,46%</t>
   </si>
   <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1308,8 +1197,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EFC1B1-CC95-420D-9E7F-0437D3DB9F0A}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC000124-E16D-4180-81DF-084191CDAC12}">
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1426,10 +1315,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1982</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1441,40 +1330,40 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>835</v>
+        <v>1432</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>835</v>
+        <v>3414</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1483,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1498,13 +1387,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -1513,217 +1402,217 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>579</v>
+        <v>3076</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>4580</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N6" s="7">
-        <v>579</v>
+        <v>7656</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>12060</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="I7" s="7">
-        <v>1504</v>
+        <v>15084</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="N7" s="7">
-        <v>1504</v>
+        <v>27144</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D8" s="7">
-        <v>3065</v>
+        <v>23681</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="7">
         <v>36</v>
       </c>
-      <c r="H8" s="7">
-        <v>4</v>
-      </c>
       <c r="I8" s="7">
-        <v>2185</v>
+        <v>24844</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="N8" s="7">
-        <v>5250</v>
+        <v>48525</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C9" s="7">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="D9" s="7">
-        <v>7753</v>
+        <v>72627</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="I9" s="7">
-        <v>10638</v>
+        <v>90310</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="N9" s="7">
-        <v>18392</v>
+        <v>162938</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1732,123 +1621,123 @@
         <v>3</v>
       </c>
       <c r="C10" s="7">
-        <v>17</v>
+        <v>187</v>
       </c>
       <c r="D10" s="7">
-        <v>11397</v>
+        <v>113426</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="I10" s="7">
-        <v>15163</v>
+        <v>136250</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
-        <v>42</v>
+        <v>350</v>
       </c>
       <c r="N10" s="7">
-        <v>26560</v>
+        <v>249677</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>1294</v>
+        <v>2138</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>1135</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>2428</v>
+        <v>2138</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>543</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1857,232 +1746,232 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>543</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D13" s="7">
-        <v>3757</v>
+        <v>9772</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I13" s="7">
-        <v>3008</v>
+        <v>7817</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="M13" s="7">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="N13" s="7">
-        <v>6766</v>
+        <v>17590</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C14" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="7">
-        <v>14437</v>
+        <v>15902</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I14" s="7">
-        <v>10607</v>
+        <v>30718</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="N14" s="7">
-        <v>25044</v>
+        <v>46620</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D15" s="7">
-        <v>21985</v>
+        <v>38503</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="H15" s="7">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I15" s="7">
-        <v>23016</v>
+        <v>59804</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="M15" s="7">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="N15" s="7">
-        <v>45001</v>
+        <v>98307</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C16" s="7">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="D16" s="7">
-        <v>70440</v>
+        <v>119255</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="I16" s="7">
-        <v>63870</v>
+        <v>149181</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
-        <v>183</v>
+        <v>366</v>
       </c>
       <c r="N16" s="7">
-        <v>134310</v>
+        <v>268436</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2091,357 +1980,357 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>146</v>
+        <v>269</v>
       </c>
       <c r="D17" s="7">
-        <v>111914</v>
+        <v>186114</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="H17" s="7">
-        <v>162</v>
+        <v>324</v>
       </c>
       <c r="I17" s="7">
-        <v>101635</v>
+        <v>247520</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M17" s="7">
-        <v>308</v>
+        <v>593</v>
       </c>
       <c r="N17" s="7">
-        <v>213549</v>
+        <v>433634</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>768</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>2287</v>
+        <v>3313</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="M18" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N18" s="7">
-        <v>2287</v>
+        <v>4082</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>1527</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>555</v>
+        <v>1087</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>555</v>
+        <v>2614</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C20" s="7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D20" s="7">
-        <v>7677</v>
+        <v>4471</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="H20" s="7">
+        <v>4</v>
+      </c>
+      <c r="I20" s="7">
+        <v>2746</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M20" s="7">
+        <v>11</v>
+      </c>
+      <c r="N20" s="7">
+        <v>7217</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="7">
-        <v>9774</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M20" s="7">
-        <v>27</v>
-      </c>
-      <c r="N20" s="7">
-        <v>17451</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C21" s="7">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D21" s="7">
-        <v>28733</v>
+        <v>17795</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>24</v>
       </c>
       <c r="I21" s="7">
-        <v>16289</v>
+        <v>19873</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="M21" s="7">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="N21" s="7">
-        <v>45021</v>
+        <v>37668</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C22" s="7">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D22" s="7">
-        <v>58456</v>
+        <v>30881</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I22" s="7">
-        <v>37337</v>
+        <v>40106</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="N22" s="7">
-        <v>95793</v>
+        <v>70987</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C23" s="7">
-        <v>192</v>
+        <v>142</v>
       </c>
       <c r="D23" s="7">
-        <v>148047</v>
+        <v>132807</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H23" s="7">
         <v>142</v>
       </c>
-      <c r="H23" s="7">
-        <v>174</v>
-      </c>
       <c r="I23" s="7">
-        <v>121675</v>
+        <v>115963</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="M23" s="7">
-        <v>366</v>
+        <v>284</v>
       </c>
       <c r="N23" s="7">
-        <v>269723</v>
+        <v>248771</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2450,357 +2339,357 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>324</v>
+        <v>223</v>
       </c>
       <c r="D24" s="7">
-        <v>242913</v>
+        <v>188249</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="H24" s="7">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="I24" s="7">
-        <v>187917</v>
+        <v>183089</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M24" s="7">
-        <v>593</v>
+        <v>443</v>
       </c>
       <c r="N24" s="7">
-        <v>430830</v>
+        <v>371339</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>2788</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>786</v>
+        <v>578</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="M25" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>3574</v>
+        <v>578</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>1065</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="H26" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>1437</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="M26" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>2502</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C27" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D27" s="7">
-        <v>2633</v>
+        <v>3772</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H27" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I27" s="7">
-        <v>4516</v>
+        <v>6940</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M27" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N27" s="7">
-        <v>7149</v>
+        <v>10712</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C28" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" s="7">
-        <v>17471</v>
+        <v>15813</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H28" s="7">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I28" s="7">
-        <v>17842</v>
+        <v>18824</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M28" s="7">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N28" s="7">
-        <v>35312</v>
+        <v>34637</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C29" s="7">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D29" s="7">
-        <v>37382</v>
+        <v>27484</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="H29" s="7">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I29" s="7">
-        <v>30972</v>
+        <v>24243</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M29" s="7">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="N29" s="7">
-        <v>68354</v>
+        <v>51727</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C30" s="7">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="D30" s="7">
-        <v>109780</v>
+        <v>117449</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H30" s="7">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="I30" s="7">
-        <v>111015</v>
+        <v>126724</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M30" s="7">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="N30" s="7">
-        <v>220795</v>
+        <v>244173</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2809,357 +2698,357 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="D31" s="7">
-        <v>171119</v>
+        <v>164519</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="H31" s="7">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="I31" s="7">
-        <v>166568</v>
+        <v>177309</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M31" s="7">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="N31" s="7">
-        <v>337687</v>
+        <v>341828</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>197</v>
+        <v>3</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D32" s="7">
-        <v>559</v>
+        <v>4889</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>198</v>
+        <v>76</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H32" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I32" s="7">
-        <v>0</v>
+        <v>5323</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>11</v>
+        <v>203</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="M32" s="7">
         <v>12</v>
       </c>
-      <c r="L32" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="M32" s="7">
-        <v>1</v>
-      </c>
       <c r="N32" s="7">
-        <v>559</v>
+        <v>10211</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>11</v>
+        <v>207</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C33" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D33" s="7">
-        <v>0</v>
+        <v>2070</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>11</v>
+        <v>209</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="H33" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" s="7">
-        <v>0</v>
+        <v>1087</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>11</v>
+        <v>212</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="M33" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N33" s="7">
-        <v>0</v>
+        <v>3157</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C34" s="7">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D34" s="7">
-        <v>6702</v>
+        <v>21091</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="H34" s="7">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="I34" s="7">
-        <v>3884</v>
+        <v>22083</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="M34" s="7">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="N34" s="7">
-        <v>10586</v>
+        <v>43175</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>211</v>
+        <v>127</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C35" s="7">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="D35" s="7">
-        <v>18064</v>
+        <v>61570</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="H35" s="7">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="I35" s="7">
-        <v>16133</v>
+        <v>84499</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="M35" s="7">
-        <v>51</v>
+        <v>208</v>
       </c>
       <c r="N35" s="7">
-        <v>34197</v>
+        <v>146069</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C36" s="7">
-        <v>34</v>
+        <v>181</v>
       </c>
       <c r="D36" s="7">
-        <v>23792</v>
+        <v>120549</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="H36" s="7">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="I36" s="7">
-        <v>28733</v>
+        <v>148997</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="M36" s="7">
-        <v>75</v>
+        <v>377</v>
       </c>
       <c r="N36" s="7">
-        <v>52526</v>
+        <v>269546</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C37" s="7">
-        <v>160</v>
+        <v>598</v>
       </c>
       <c r="D37" s="7">
-        <v>122338</v>
+        <v>442139</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="H37" s="7">
-        <v>165</v>
+        <v>587</v>
       </c>
       <c r="I37" s="7">
-        <v>119740</v>
+        <v>482179</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="M37" s="7">
-        <v>325</v>
+        <v>1185</v>
       </c>
       <c r="N37" s="7">
-        <v>242079</v>
+        <v>924319</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3168,421 +3057,61 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
-        <v>232</v>
+        <v>914</v>
       </c>
       <c r="D38" s="7">
-        <v>171456</v>
+        <v>652309</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="H38" s="7">
-        <v>235</v>
+        <v>939</v>
       </c>
       <c r="I38" s="7">
-        <v>168490</v>
+        <v>744169</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M38" s="7">
-        <v>467</v>
+        <v>1853</v>
       </c>
       <c r="N38" s="7">
-        <v>339947</v>
+        <v>1396478</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="7">
-        <v>6</v>
-      </c>
-      <c r="D39" s="7">
-        <v>4641</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H39" s="7">
-        <v>6</v>
-      </c>
-      <c r="I39" s="7">
-        <v>5043</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="M39" s="7">
-        <v>12</v>
-      </c>
-      <c r="N39" s="7">
-        <v>9684</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="7">
-        <v>2</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1065</v>
-      </c>
-      <c r="E40" s="7" t="s">
+      <c r="A39" t="s">
         <v>249</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H40" s="7">
-        <v>3</v>
-      </c>
-      <c r="I40" s="7">
-        <v>1992</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="M40" s="7">
-        <v>5</v>
-      </c>
-      <c r="N40" s="7">
-        <v>3058</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="7">
-        <v>33</v>
-      </c>
-      <c r="D41" s="7">
-        <v>21348</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H41" s="7">
-        <v>33</v>
-      </c>
-      <c r="I41" s="7">
-        <v>21182</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="M41" s="7">
-        <v>66</v>
-      </c>
-      <c r="N41" s="7">
-        <v>42530</v>
-      </c>
-      <c r="O41" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42" s="7">
-        <v>115</v>
-      </c>
-      <c r="D42" s="7">
-        <v>78705</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H42" s="7">
-        <v>93</v>
-      </c>
-      <c r="I42" s="7">
-        <v>62373</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="M42" s="7">
-        <v>208</v>
-      </c>
-      <c r="N42" s="7">
-        <v>141078</v>
-      </c>
-      <c r="O42" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" s="7">
-        <v>196</v>
-      </c>
-      <c r="D43" s="7">
-        <v>144681</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="H43" s="7">
-        <v>181</v>
-      </c>
-      <c r="I43" s="7">
-        <v>122243</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="M43" s="7">
-        <v>377</v>
-      </c>
-      <c r="N43" s="7">
-        <v>266924</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="7">
-        <v>587</v>
-      </c>
-      <c r="D44" s="7">
-        <v>458360</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="H44" s="7">
-        <v>598</v>
-      </c>
-      <c r="I44" s="7">
-        <v>426939</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M44" s="7">
-        <v>1185</v>
-      </c>
-      <c r="N44" s="7">
-        <v>885299</v>
-      </c>
-      <c r="O44" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="7">
-        <v>939</v>
-      </c>
-      <c r="D45" s="7">
-        <v>708800</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H45" s="7">
-        <v>914</v>
-      </c>
-      <c r="I45" s="7">
-        <v>639773</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M45" s="7">
-        <v>1853</v>
-      </c>
-      <c r="N45" s="7">
-        <v>1348573</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>286</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A25:A31"/>
     <mergeCell ref="A32:A38"/>
-    <mergeCell ref="A39:A45"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
